--- a/OIA UI/OIA UI/Company-1.xlsx
+++ b/OIA UI/OIA UI/Company-1.xlsx
@@ -5,25 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geors\Documents\Defsecone\Products\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\defsecone project\OIA\OIA UI\OIA UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56148C-3A70-4C5B-86A3-7EA6768A5500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72670DF1-3544-4606-ACD5-734414B2ECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{38AD97BA-F305-4B12-ABE9-EEA4D4443162}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38AD97BA-F305-4B12-ABE9-EEA4D4443162}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
-    <sheet name="Security related organization a" sheetId="1" r:id="rId2"/>
+    <sheet name="Security related organization a" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Security related organization a'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Security related organization a'!$A$1:$H$55</definedName>
     <definedName name="CompaniesBySector">_xlfn._xlws.FILTER(#REF!,#REF! =#REF!)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="40">
   <si>
     <t>Control Name</t>
   </si>
@@ -162,18 +158,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Average of Observed Rating</t>
-  </si>
-  <si>
-    <t>Average of CMMI Tier Target Rating</t>
   </si>
 </sst>
 </file>
@@ -263,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -298,10 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,1828 +401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Company-1.xlsx]Sheet3!PivotTable6</c:name>
-    <c:fmtId val="7"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Observed Rating</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>SPE-Domain-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPE-Domain-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPE-Domain-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.94444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FAF-4269-B989-DDD900E17662}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of CMMI Tier Target Rating</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>SPE-Domain-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPE-Domain-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPE-Domain-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3FAF-4269-B989-DDD900E17662}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1645882176"/>
-        <c:axId val="1645882656"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1645882176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1645882656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1645882656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1645882176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>145255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>359568</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>173830</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C581690-17D9-3C37-EAF2-D3E8CDB7228D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="GEORSHAN G" refreshedDate="45861.694856134258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="54" xr:uid="{342C2819-DC54-40EC-9721-15E725986CE1}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H55" sheet="Security related organization a"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="SPE" numFmtId="0">
-      <sharedItems count="3">
-        <s v="SPE-Domain-1"/>
-        <s v="SPE-Domain-2"/>
-        <s v="SPE-Domain-3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sub Domain" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Control ID" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Control Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Control Name2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="In Place?" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="CMMI Tier Target Rating" numFmtId="0">
-      <sharedItems count="2">
-        <s v="3 - Defined"/>
-        <s v="4 - Quantitatively Managed"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Observed Rating" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
-    </cacheField>
-    <cacheField name="CMMI Tier Observed Rating" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="54">
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="Y"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="Not Applicable"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="N/A"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 2.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44B8C9B2-273F-45CF-BAD4-F24A0060E5CB}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Observed Rating" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of CMMI Tier Target Rating" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2561,82 +719,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5785E8-F1E0-4E93-9F54-157BF72A89AE}">
-  <dimension ref="A3:C7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648E6115-490A-4C16-A83C-B9D889386202}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2647,19 +729,19 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.265625" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" customWidth="1"/>
-    <col min="4" max="4" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="34.53125" customWidth="1"/>
-    <col min="8" max="8" width="27.53125" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -2685,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2711,7 +793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2737,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2763,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2789,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2839,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2865,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2917,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2943,7 +1025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2969,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2993,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +1127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +1179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3123,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3147,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3173,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -3199,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3225,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3277,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -3301,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3327,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -3353,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -3379,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -3405,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3431,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -3481,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -3533,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -3559,7 +1641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -3585,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3609,7 +1691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -3635,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -3661,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -3687,7 +1769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3713,7 +1795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -3763,7 +1845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -3789,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -3815,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -3841,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +1949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -3893,7 +1975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -3917,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -3943,7 +2025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -3969,7 +2051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -3995,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -4021,7 +2103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -4047,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>

--- a/OIA UI/OIA UI/Company-1.xlsx
+++ b/OIA UI/OIA UI/Company-1.xlsx
@@ -5,25 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geors\Documents\Defsecone\Products\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\defsecone project\OIA\OIA UI\OIA UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56148C-3A70-4C5B-86A3-7EA6768A5500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA849E-E701-43EC-9532-CFBE5C83360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{38AD97BA-F305-4B12-ABE9-EEA4D4443162}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38AD97BA-F305-4B12-ABE9-EEA4D4443162}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
-    <sheet name="Security related organization a" sheetId="1" r:id="rId2"/>
+    <sheet name="Security related organization a" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Security related organization a'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Security related organization a'!$A$1:$H$55</definedName>
     <definedName name="CompaniesBySector">_xlfn._xlws.FILTER(#REF!,#REF! =#REF!)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="40">
   <si>
     <t>Control Name</t>
   </si>
@@ -162,18 +158,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Average of Observed Rating</t>
-  </si>
-  <si>
-    <t>Average of CMMI Tier Target Rating</t>
   </si>
 </sst>
 </file>
@@ -263,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -298,10 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,1828 +401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Company-1.xlsx]Sheet3!PivotTable6</c:name>
-    <c:fmtId val="7"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Observed Rating</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>SPE-Domain-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPE-Domain-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPE-Domain-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.94444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FAF-4269-B989-DDD900E17662}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of CMMI Tier Target Rating</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>SPE-Domain-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPE-Domain-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPE-Domain-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3FAF-4269-B989-DDD900E17662}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1645882176"/>
-        <c:axId val="1645882656"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1645882176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1645882656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1645882656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1645882176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>145255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>359568</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>173830</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C581690-17D9-3C37-EAF2-D3E8CDB7228D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="GEORSHAN G" refreshedDate="45861.694856134258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="54" xr:uid="{342C2819-DC54-40EC-9721-15E725986CE1}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H55" sheet="Security related organization a"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="SPE" numFmtId="0">
-      <sharedItems count="3">
-        <s v="SPE-Domain-1"/>
-        <s v="SPE-Domain-2"/>
-        <s v="SPE-Domain-3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sub Domain" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Control ID" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Control Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Control Name2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="In Place?" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="CMMI Tier Target Rating" numFmtId="0">
-      <sharedItems count="2">
-        <s v="3 - Defined"/>
-        <s v="4 - Quantitatively Managed"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Observed Rating" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
-    </cacheField>
-    <cacheField name="CMMI Tier Observed Rating" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="54">
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="Y"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="Not Applicable"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="N/A"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 2.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-1"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-2"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.1"/>
-    <s v=" Information security management system (ISMS)"/>
-    <s v="Information Security Program Plan"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.2"/>
-    <s v=" Background checks"/>
-    <s v="Personnel Screening"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="2 - Managed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.3"/>
-    <s v=" Security roles and responsibilities"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="0"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.4"/>
-    <s v=" Security awareness training"/>
-    <s v="Awareness Training"/>
-    <s v="N"/>
-    <x v="1"/>
-    <n v="0"/>
-    <s v="0 - Incomplete"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.5"/>
-    <s v=" Security responsibilities training"/>
-    <s v="Role-Based Training"/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="SubDomain-3"/>
-    <s v="ORG 1.6"/>
-    <s v=" Supply chain security"/>
-    <m/>
-    <s v="P"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="1 - Performed"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44B8C9B2-273F-45CF-BAD4-F24A0060E5CB}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Observed Rating" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of CMMI Tier Target Rating" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2561,105 +719,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5785E8-F1E0-4E93-9F54-157BF72A89AE}">
-  <dimension ref="A3:C7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648E6115-490A-4C16-A83C-B9D889386202}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.265625" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" customWidth="1"/>
-    <col min="4" max="4" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="34.53125" customWidth="1"/>
-    <col min="8" max="8" width="27.53125" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -2685,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2711,7 +793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2737,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2763,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2789,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2839,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2865,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2917,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2943,7 +1025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2969,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2993,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +1127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +1179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3123,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3147,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3173,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -3199,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3225,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3277,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -3301,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3327,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -3353,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -3379,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -3405,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3431,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -3481,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -3533,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -3559,7 +1641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -3585,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3609,7 +1691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -3635,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -3661,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -3687,7 +1769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3713,7 +1795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -3763,7 +1845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -3789,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -3815,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -3841,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +1949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -3893,7 +1975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -3917,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -3943,7 +2025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -3969,7 +2051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -3995,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -4021,7 +2103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -4047,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -4072,7 +2154,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{648E6115-490A-4C16-A83C-B9D889386202}"/>
+  <autoFilter ref="A1:H55" xr:uid="{648E6115-490A-4C16-A83C-B9D889386202}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SPE-Domain-1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SubDomain-3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A20:A37">
     <cfRule type="uniqueValues" dxfId="11" priority="1"/>
